--- a/06-03-2023/data/output/xlsx/sample_0/15_causality.xlsx
+++ b/06-03-2023/data/output/xlsx/sample_0/15_causality.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="120">
   <si>
     <t>name</t>
   </si>
@@ -64,9 +64,6 @@
     <t>num_of_adds_and_subs__16</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__17</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__2</t>
   </si>
   <si>
@@ -136,6 +133,30 @@
     <t>num_of_decimals__21</t>
   </si>
   <si>
+    <t>num_of_decimals__22</t>
+  </si>
+  <si>
+    <t>num_of_decimals__23</t>
+  </si>
+  <si>
+    <t>num_of_decimals__24</t>
+  </si>
+  <si>
+    <t>num_of_decimals__25</t>
+  </si>
+  <si>
+    <t>num_of_decimals__26</t>
+  </si>
+  <si>
+    <t>num_of_decimals__27</t>
+  </si>
+  <si>
+    <t>num_of_decimals__28</t>
+  </si>
+  <si>
+    <t>num_of_decimals__29</t>
+  </si>
+  <si>
     <t>num_of_decimals__3</t>
   </si>
   <si>
@@ -172,6 +193,18 @@
     <t>num_of_equals__12</t>
   </si>
   <si>
+    <t>num_of_equals__13</t>
+  </si>
+  <si>
+    <t>num_of_equals__14</t>
+  </si>
+  <si>
+    <t>num_of_equals__15</t>
+  </si>
+  <si>
+    <t>num_of_equals__16</t>
+  </si>
+  <si>
     <t>num_of_equals__2</t>
   </si>
   <si>
@@ -220,6 +253,9 @@
     <t>num_of_mults_and_divs__15</t>
   </si>
   <si>
+    <t>num_of_mults_and_divs__16</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__2</t>
   </si>
   <si>
@@ -250,9 +286,6 @@
     <t>num_of_unknowns__1</t>
   </si>
   <si>
-    <t>num_of_unknowns__10</t>
-  </si>
-  <si>
     <t>num_of_unknowns__2</t>
   </si>
   <si>
@@ -292,21 +325,6 @@
     <t>pairs_of_parentheses__12</t>
   </si>
   <si>
-    <t>pairs_of_parentheses__13</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__14</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__15</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__16</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__17</t>
-  </si>
-  <si>
     <t>pairs_of_parentheses__2</t>
   </si>
   <si>
@@ -334,52 +352,28 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_unknowns__1,num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_unknowns__1,num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_unknowns__1,num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_unknowns__1,num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_unknowns__1,num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_unknowns__1,num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_unknowns__1,num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_unknowns__1,num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_unknowns__1,num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_unknowns__1,num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_unknowns__1,num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__1,num_of_equals__2,num_of_unknowns__1,num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__0,num_of_equals__2,num_of_unknowns__1,num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_unknowns__1</t>
+    <t>num_of_adds_and_subs__1,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_unknowns__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_unknowns__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_equals__1,num_of_equals__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_unknowns__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_equals__0,num_of_equals__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_unknowns__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_equals__0,num_of_equals__1,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_unknowns__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_mults_and_divs__1,num_of_unknowns__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_mults_and_divs__0,num_of_unknowns__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1</t>
   </si>
 </sst>
 </file>
@@ -737,7 +731,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -774,22 +768,22 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>968</v>
+        <v>974</v>
       </c>
       <c r="D2">
-        <v>0.00324310132723575</v>
+        <v>0.002372648610666198</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F2">
-        <v>0.001033057851239669</v>
+        <v>0.001026694045174538</v>
       </c>
       <c r="G2">
         <v>0.001002004008016032</v>
       </c>
       <c r="H2">
-        <v>3.105384322363747E-05</v>
+        <v>2.469003715850604E-05</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -800,22 +794,22 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>835</v>
+        <v>847</v>
       </c>
       <c r="D3">
-        <v>0.003491037210548744</v>
+        <v>0.002891826741801954</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F3">
-        <v>0.001197604790419162</v>
+        <v>0.001180637544273908</v>
       </c>
       <c r="G3">
         <v>0.001002004008016032</v>
       </c>
       <c r="H3">
-        <v>0.0001956007824031297</v>
+        <v>0.0001786335362578759</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -826,10 +820,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -849,10 +843,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -875,7 +869,7 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -898,7 +892,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -921,7 +915,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -941,10 +935,10 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -964,10 +958,10 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -987,10 +981,10 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>444</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1010,22 +1004,19 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <v>427</v>
-      </c>
-      <c r="D12">
-        <v>0.004767870284730149</v>
-      </c>
-      <c r="E12" t="s">
-        <v>108</v>
+        <v>310</v>
+      </c>
+      <c r="D12" t="s">
+        <v>111</v>
       </c>
       <c r="F12">
-        <v>0.00234192037470726</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0.001002004008016032</v>
       </c>
       <c r="H12">
-        <v>0.001339916366691228</v>
+        <v>-0.001002004008016032</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1036,22 +1027,19 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>295</v>
-      </c>
-      <c r="D13">
-        <v>0.005981430844152018</v>
-      </c>
-      <c r="E13" t="s">
-        <v>109</v>
+        <v>202</v>
+      </c>
+      <c r="D13" t="s">
+        <v>111</v>
       </c>
       <c r="F13">
-        <v>0.003389830508474576</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0.001002004008016032</v>
       </c>
       <c r="H13">
-        <v>0.002387826500458544</v>
+        <v>-0.001002004008016032</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1062,22 +1050,19 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>175</v>
-      </c>
-      <c r="D14">
-        <v>0.009272872442861539</v>
-      </c>
-      <c r="E14" t="s">
-        <v>110</v>
+        <v>152</v>
+      </c>
+      <c r="D14" t="s">
+        <v>111</v>
       </c>
       <c r="F14">
-        <v>0.005714285714285714</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0.001002004008016032</v>
       </c>
       <c r="H14">
-        <v>0.004712281706269682</v>
+        <v>-0.001002004008016032</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1088,22 +1073,19 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>130</v>
-      </c>
-      <c r="D15">
-        <v>0.01176220705579059</v>
-      </c>
-      <c r="E15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" t="s">
         <v>111</v>
       </c>
       <c r="F15">
-        <v>0.007692307692307693</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0.001002004008016032</v>
       </c>
       <c r="H15">
-        <v>0.006690303684291661</v>
+        <v>-0.001002004008016032</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1114,10 +1096,10 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1137,10 +1119,10 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1163,7 +1145,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1183,10 +1165,10 @@
         <v>24</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>654</v>
       </c>
       <c r="D19" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1206,22 +1188,19 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <v>650</v>
-      </c>
-      <c r="D20">
-        <v>0.003942512654968604</v>
-      </c>
-      <c r="E20" t="s">
-        <v>112</v>
+        <v>527</v>
+      </c>
+      <c r="D20" t="s">
+        <v>111</v>
       </c>
       <c r="F20">
-        <v>0.001538461538461538</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>0.001002004008016032</v>
       </c>
       <c r="H20">
-        <v>0.0005364575304455065</v>
+        <v>-0.001002004008016032</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1232,22 +1211,19 @@
         <v>26</v>
       </c>
       <c r="C21">
-        <v>522</v>
-      </c>
-      <c r="D21">
-        <v>0.00459096637787625</v>
-      </c>
-      <c r="E21" t="s">
-        <v>113</v>
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>111</v>
       </c>
       <c r="F21">
-        <v>0.001915708812260536</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>0.001002004008016032</v>
       </c>
       <c r="H21">
-        <v>0.0009137048042445043</v>
+        <v>-0.001002004008016032</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1258,10 +1234,10 @@
         <v>27</v>
       </c>
       <c r="C22">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1281,10 +1257,10 @@
         <v>28</v>
       </c>
       <c r="C23">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1304,10 +1280,10 @@
         <v>29</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1327,10 +1303,10 @@
         <v>30</v>
       </c>
       <c r="C25">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1350,10 +1326,10 @@
         <v>31</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1376,7 +1352,7 @@
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1396,10 +1372,10 @@
         <v>33</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1419,10 +1395,10 @@
         <v>34</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1445,7 +1421,7 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1465,10 +1441,10 @@
         <v>36</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>415</v>
       </c>
       <c r="D31" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1488,22 +1464,19 @@
         <v>37</v>
       </c>
       <c r="C32">
-        <v>411</v>
-      </c>
-      <c r="D32">
-        <v>0.005556439931918616</v>
-      </c>
-      <c r="E32" t="s">
-        <v>114</v>
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>111</v>
       </c>
       <c r="F32">
-        <v>0.0024330900243309</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>0.001002004008016032</v>
       </c>
       <c r="H32">
-        <v>0.001431086016314868</v>
+        <v>-0.001002004008016032</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1514,10 +1487,10 @@
         <v>38</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1540,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1560,22 +1533,19 @@
         <v>40</v>
       </c>
       <c r="C35">
-        <v>303</v>
-      </c>
-      <c r="D35">
-        <v>0.006759276675271522</v>
-      </c>
-      <c r="E35" t="s">
-        <v>115</v>
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>111</v>
       </c>
       <c r="F35">
-        <v>0.0033003300330033</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <v>0.001002004008016032</v>
       </c>
       <c r="H35">
-        <v>0.002298326024987268</v>
+        <v>-0.001002004008016032</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1586,22 +1556,19 @@
         <v>41</v>
       </c>
       <c r="C36">
-        <v>207</v>
-      </c>
-      <c r="D36">
-        <v>0.008518909586879656</v>
-      </c>
-      <c r="E36" t="s">
-        <v>116</v>
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>111</v>
       </c>
       <c r="F36">
-        <v>0.004830917874396135</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>0.001002004008016032</v>
       </c>
       <c r="H36">
-        <v>0.003828913866380103</v>
+        <v>-0.001002004008016032</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1612,10 +1579,10 @@
         <v>42</v>
       </c>
       <c r="C37">
-        <v>163</v>
+        <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1635,10 +1602,10 @@
         <v>43</v>
       </c>
       <c r="C38">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1658,10 +1625,10 @@
         <v>44</v>
       </c>
       <c r="C39">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1681,10 +1648,10 @@
         <v>45</v>
       </c>
       <c r="C40">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1704,10 +1671,10 @@
         <v>46</v>
       </c>
       <c r="C41">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1727,22 +1694,19 @@
         <v>47</v>
       </c>
       <c r="C42">
-        <v>996</v>
-      </c>
-      <c r="D42">
-        <v>0.003181546912264721</v>
-      </c>
-      <c r="E42" t="s">
-        <v>117</v>
+        <v>296</v>
+      </c>
+      <c r="D42" t="s">
+        <v>111</v>
       </c>
       <c r="F42">
-        <v>0.001004016064257028</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>0.001002004008016032</v>
       </c>
       <c r="H42">
-        <v>2.012056240996039E-06</v>
+        <v>-0.001002004008016032</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1753,22 +1717,19 @@
         <v>48</v>
       </c>
       <c r="C43">
-        <v>991</v>
-      </c>
-      <c r="D43">
-        <v>0.003183725256095506</v>
-      </c>
-      <c r="E43" t="s">
-        <v>118</v>
+        <v>215</v>
+      </c>
+      <c r="D43" t="s">
+        <v>111</v>
       </c>
       <c r="F43">
-        <v>0.001009081735620585</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <v>0.001002004008016032</v>
       </c>
       <c r="H43">
-        <v>7.077727604553295E-06</v>
+        <v>-0.001002004008016032</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1779,10 +1740,10 @@
         <v>49</v>
       </c>
       <c r="C44">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="D44" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1802,10 +1763,10 @@
         <v>50</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="D45" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -1825,10 +1786,10 @@
         <v>51</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="D46" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1848,22 +1809,19 @@
         <v>52</v>
       </c>
       <c r="C47">
-        <v>649</v>
-      </c>
-      <c r="D47">
-        <v>0.003594466822984576</v>
-      </c>
-      <c r="E47" t="s">
-        <v>119</v>
+        <v>74</v>
+      </c>
+      <c r="D47" t="s">
+        <v>111</v>
       </c>
       <c r="F47">
-        <v>0.001540832049306626</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>0.001002004008016032</v>
       </c>
       <c r="H47">
-        <v>0.0005388280412905937</v>
+        <v>-0.001002004008016032</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1874,10 +1832,10 @@
         <v>53</v>
       </c>
       <c r="C48">
-        <v>475</v>
+        <v>48</v>
       </c>
       <c r="D48" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1897,19 +1855,22 @@
         <v>54</v>
       </c>
       <c r="C49">
-        <v>307</v>
-      </c>
-      <c r="D49" t="s">
-        <v>105</v>
+        <v>996</v>
+      </c>
+      <c r="D49">
+        <v>0.002266108510352048</v>
+      </c>
+      <c r="E49" t="s">
+        <v>114</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.001004016064257028</v>
       </c>
       <c r="G49">
         <v>0.001002004008016032</v>
       </c>
       <c r="H49">
-        <v>-0.001002004008016032</v>
+        <v>2.012056240996039E-06</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1920,19 +1881,22 @@
         <v>55</v>
       </c>
       <c r="C50">
-        <v>233</v>
-      </c>
-      <c r="D50" t="s">
-        <v>105</v>
+        <v>988</v>
+      </c>
+      <c r="D50">
+        <v>0.002305187224791209</v>
+      </c>
+      <c r="E50" t="s">
+        <v>115</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>0.001012145748987854</v>
       </c>
       <c r="G50">
         <v>0.001002004008016032</v>
       </c>
       <c r="H50">
-        <v>-0.001002004008016032</v>
+        <v>1.014174097182228E-05</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1943,10 +1907,10 @@
         <v>56</v>
       </c>
       <c r="C51">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1966,10 +1930,10 @@
         <v>57</v>
       </c>
       <c r="C52">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -1989,10 +1953,10 @@
         <v>58</v>
       </c>
       <c r="C53">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -2012,10 +1976,10 @@
         <v>59</v>
       </c>
       <c r="C54">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2035,10 +1999,10 @@
         <v>60</v>
       </c>
       <c r="C55">
-        <v>216</v>
+        <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -2058,10 +2022,10 @@
         <v>61</v>
       </c>
       <c r="C56">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -2081,10 +2045,10 @@
         <v>62</v>
       </c>
       <c r="C57">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -2104,19 +2068,22 @@
         <v>63</v>
       </c>
       <c r="C58">
-        <v>8</v>
-      </c>
-      <c r="D58" t="s">
-        <v>105</v>
+        <v>636</v>
+      </c>
+      <c r="D58">
+        <v>0.002842742453820843</v>
+      </c>
+      <c r="E58" t="s">
+        <v>116</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>0.001572327044025157</v>
       </c>
       <c r="G58">
         <v>0.001002004008016032</v>
       </c>
       <c r="H58">
-        <v>-0.001002004008016032</v>
+        <v>0.0005703230360091253</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2127,10 +2094,10 @@
         <v>64</v>
       </c>
       <c r="C59">
-        <v>6</v>
+        <v>486</v>
       </c>
       <c r="D59" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -2150,10 +2117,10 @@
         <v>65</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>320</v>
       </c>
       <c r="D60" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -2173,10 +2140,10 @@
         <v>66</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>236</v>
       </c>
       <c r="D61" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -2196,10 +2163,10 @@
         <v>67</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>167</v>
       </c>
       <c r="D62" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -2222,7 +2189,7 @@
         <v>110</v>
       </c>
       <c r="D63" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2242,10 +2209,10 @@
         <v>69</v>
       </c>
       <c r="C64">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="D64" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -2265,10 +2232,10 @@
         <v>70</v>
       </c>
       <c r="C65">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="D65" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2288,19 +2255,22 @@
         <v>71</v>
       </c>
       <c r="C66">
-        <v>53</v>
-      </c>
-      <c r="D66" t="s">
-        <v>105</v>
+        <v>225</v>
+      </c>
+      <c r="D66">
+        <v>0.005011621764210181</v>
+      </c>
+      <c r="E66" t="s">
+        <v>117</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>0.004444444444444444</v>
       </c>
       <c r="G66">
         <v>0.001002004008016032</v>
       </c>
       <c r="H66">
-        <v>-0.001002004008016032</v>
+        <v>0.003442440436428412</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2311,19 +2281,22 @@
         <v>72</v>
       </c>
       <c r="C67">
-        <v>32</v>
-      </c>
-      <c r="D67" t="s">
-        <v>105</v>
+        <v>178</v>
+      </c>
+      <c r="D67">
+        <v>0.006094049577487307</v>
+      </c>
+      <c r="E67" t="s">
+        <v>118</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>0.005617977528089887</v>
       </c>
       <c r="G67">
         <v>0.001002004008016032</v>
       </c>
       <c r="H67">
-        <v>-0.001002004008016032</v>
+        <v>0.004615973520073855</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2334,10 +2307,10 @@
         <v>73</v>
       </c>
       <c r="C68">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2357,10 +2330,10 @@
         <v>74</v>
       </c>
       <c r="C69">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D69" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -2380,10 +2353,10 @@
         <v>75</v>
       </c>
       <c r="C70">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -2403,19 +2376,19 @@
         <v>76</v>
       </c>
       <c r="C71">
-        <v>998</v>
+        <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F71">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="G71">
         <v>0.001002004008016032</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>-0.001002004008016032</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2426,22 +2399,19 @@
         <v>77</v>
       </c>
       <c r="C72">
-        <v>708</v>
-      </c>
-      <c r="D72">
-        <v>0.004033045564563356</v>
-      </c>
-      <c r="E72" t="s">
-        <v>120</v>
+        <v>3</v>
+      </c>
+      <c r="D72" t="s">
+        <v>111</v>
       </c>
       <c r="F72">
-        <v>0.001412429378531073</v>
+        <v>0</v>
       </c>
       <c r="G72">
         <v>0.001002004008016032</v>
       </c>
       <c r="H72">
-        <v>0.0004104253705150415</v>
+        <v>-0.001002004008016032</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2452,10 +2422,10 @@
         <v>78</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -2475,22 +2445,19 @@
         <v>79</v>
       </c>
       <c r="C74">
-        <v>121</v>
-      </c>
-      <c r="D74">
-        <v>0.01439293449139238</v>
-      </c>
-      <c r="E74" t="s">
-        <v>121</v>
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>111</v>
       </c>
       <c r="F74">
-        <v>0.008264462809917356</v>
+        <v>0</v>
       </c>
       <c r="G74">
         <v>0.001002004008016032</v>
       </c>
       <c r="H74">
-        <v>0.007262458801901323</v>
+        <v>-0.001002004008016032</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2501,10 +2468,10 @@
         <v>80</v>
       </c>
       <c r="C75">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="D75" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -2524,10 +2491,10 @@
         <v>81</v>
       </c>
       <c r="C76">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="D76" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -2547,10 +2514,10 @@
         <v>82</v>
       </c>
       <c r="C77">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="D77" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -2570,10 +2537,10 @@
         <v>83</v>
       </c>
       <c r="C78">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D78" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -2593,10 +2560,10 @@
         <v>84</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D79" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -2616,10 +2583,10 @@
         <v>85</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D80" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2639,10 +2606,10 @@
         <v>86</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D81" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -2662,10 +2629,10 @@
         <v>87</v>
       </c>
       <c r="C82">
-        <v>457</v>
+        <v>12</v>
       </c>
       <c r="D82" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -2685,19 +2652,22 @@
         <v>88</v>
       </c>
       <c r="C83">
-        <v>180</v>
-      </c>
-      <c r="D83" t="s">
-        <v>105</v>
+        <v>997</v>
+      </c>
+      <c r="D83">
+        <v>0.002266103956319944</v>
+      </c>
+      <c r="E83" t="s">
+        <v>119</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>0.001003009027081244</v>
       </c>
       <c r="G83">
         <v>0.001002004008016032</v>
       </c>
       <c r="H83">
-        <v>-0.001002004008016032</v>
+        <v>1.005019065211752E-06</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2708,10 +2678,10 @@
         <v>89</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>704</v>
       </c>
       <c r="D84" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -2731,10 +2701,10 @@
         <v>90</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="D85" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2754,10 +2724,10 @@
         <v>91</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="D86" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2777,10 +2747,10 @@
         <v>92</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D87" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2800,10 +2770,10 @@
         <v>93</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D88" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2823,10 +2793,10 @@
         <v>94</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D89" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2846,10 +2816,10 @@
         <v>95</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2869,10 +2839,10 @@
         <v>96</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -2892,10 +2862,10 @@
         <v>97</v>
       </c>
       <c r="C92">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -2915,10 +2885,10 @@
         <v>98</v>
       </c>
       <c r="C93">
-        <v>55</v>
+        <v>466</v>
       </c>
       <c r="D93" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -2938,10 +2908,10 @@
         <v>99</v>
       </c>
       <c r="C94">
-        <v>30</v>
+        <v>184</v>
       </c>
       <c r="D94" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -2961,10 +2931,10 @@
         <v>100</v>
       </c>
       <c r="C95">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D95" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -2984,10 +2954,10 @@
         <v>101</v>
       </c>
       <c r="C96">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D96" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -3007,10 +2977,10 @@
         <v>102</v>
       </c>
       <c r="C97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -3030,10 +3000,10 @@
         <v>103</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="D98" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -3053,18 +3023,156 @@
         <v>104</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D99" t="s">
+        <v>111</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0.001002004008016032</v>
+      </c>
+      <c r="H99">
+        <v>-0.001002004008016032</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
         <v>105</v>
       </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-      <c r="G99">
-        <v>0.001002004008016032</v>
-      </c>
-      <c r="H99">
+      <c r="C100">
+        <v>23</v>
+      </c>
+      <c r="D100" t="s">
+        <v>111</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0.001002004008016032</v>
+      </c>
+      <c r="H100">
+        <v>-0.001002004008016032</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>106</v>
+      </c>
+      <c r="C101">
+        <v>17</v>
+      </c>
+      <c r="D101" t="s">
+        <v>111</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0.001002004008016032</v>
+      </c>
+      <c r="H101">
+        <v>-0.001002004008016032</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1">
+        <v>0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>107</v>
+      </c>
+      <c r="C102">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s">
+        <v>111</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0.001002004008016032</v>
+      </c>
+      <c r="H102">
+        <v>-0.001002004008016032</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>108</v>
+      </c>
+      <c r="C103">
+        <v>8</v>
+      </c>
+      <c r="D103" t="s">
+        <v>111</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0.001002004008016032</v>
+      </c>
+      <c r="H103">
+        <v>-0.001002004008016032</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>109</v>
+      </c>
+      <c r="C104">
+        <v>6</v>
+      </c>
+      <c r="D104" t="s">
+        <v>111</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0.001002004008016032</v>
+      </c>
+      <c r="H104">
+        <v>-0.001002004008016032</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1">
+        <v>0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C105">
+        <v>5</v>
+      </c>
+      <c r="D105" t="s">
+        <v>111</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0.001002004008016032</v>
+      </c>
+      <c r="H105">
         <v>-0.001002004008016032</v>
       </c>
     </row>
